--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2889323.428872711</v>
+        <v>2964853.098537516</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>276.8320453490578</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>374.2461442616176</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -756,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -817,28 +819,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>60.85599612146594</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>10.03156470826291</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -871,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>190.5903249075309</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>219.5513188906178</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>229.5889480231534</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>110.0115294480439</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1133,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1151,7 +1153,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>71.64868356027414</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1190,16 +1192,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>367.6854425256205</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>11.85862067621759</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1528,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>141.2701222011937</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>88.40546239687022</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1585,13 +1587,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1780,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1825,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>39.87755093814996</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>5.107731335945625</v>
       </c>
     </row>
     <row r="17">
@@ -1859,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>40.43146776617836</v>
+        <v>166.4140224450004</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2257,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>55.43878055348078</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,16 +2298,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>208.2679477631767</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2491,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>145.6925184226057</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>216.2479102458288</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2567,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896916</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2609,7 +2611,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>141.6377868388146</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>36.88713826833477</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2956,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -2995,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>164.8673055070252</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>243.0082126459108</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>266.9749449830114</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>199.6978781928944</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274067</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,7 +3435,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -3442,7 +3444,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>161.4705307797016</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>171.2417997811445</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3560,7 +3562,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>97.38164586498256</v>
       </c>
       <c r="W40" t="n">
-        <v>178.2057130001375</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>105.6512185813657</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>66.73489158096233</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3955,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3977,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710067</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>97.18862251091667</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>84.20224444138279</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4195,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>919.5755868835438</v>
+        <v>1701.775251950352</v>
       </c>
       <c r="C2" t="n">
-        <v>919.5755868835438</v>
+        <v>1701.775251950352</v>
       </c>
       <c r="D2" t="n">
-        <v>919.5755868835438</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>919.5755868835438</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>912.6300861343403</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="X2" t="n">
-        <v>1309.714918859356</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="Y2" t="n">
-        <v>919.5755868835438</v>
+        <v>2088.375092014473</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4419,13 +4421,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210.9658229629848</v>
+        <v>477.919485916526</v>
       </c>
       <c r="C4" t="n">
-        <v>210.9658229629848</v>
+        <v>308.9833029886191</v>
       </c>
       <c r="D4" t="n">
-        <v>210.9658229629848</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E4" t="n">
-        <v>210.9658229629848</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F4" t="n">
-        <v>64.07587546507446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G4" t="n">
-        <v>64.07587546507446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610022</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W4" t="n">
-        <v>438.9553738610022</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X4" t="n">
-        <v>210.9658229629848</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y4" t="n">
-        <v>210.9658229629848</v>
+        <v>477.919485916526</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1116.950579244873</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="C5" t="n">
-        <v>747.9880623044612</v>
+        <v>1490.449956290451</v>
       </c>
       <c r="D5" t="n">
-        <v>555.4725825998845</v>
+        <v>1490.449956290451</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>1104.661703692207</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>693.6757989025996</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>275.7119908007865</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990286</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.752638628377</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>1893.689751284806</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>1893.689751284806</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X5" t="n">
-        <v>1893.689751284806</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="Y5" t="n">
-        <v>1503.550419308995</v>
+        <v>1859.412473230863</v>
       </c>
     </row>
     <row r="6">
@@ -4635,34 +4637,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615929</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245974</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245974</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>281.9325327183818</v>
+        <v>617.0062271882081</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>327.5890571512475</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>959.5129866402885</v>
+        <v>843.3415311720264</v>
       </c>
       <c r="C8" t="n">
-        <v>959.5129866402885</v>
+        <v>474.3790142316147</v>
       </c>
       <c r="D8" t="n">
-        <v>959.5129866402885</v>
+        <v>474.3790142316147</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>474.3790142316147</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>467.4335134824112</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>453.5101094210021</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>126.315389457005</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224074</v>
@@ -4814,40 +4816,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304456</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942547</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>1717.512263598976</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W8" t="n">
-        <v>1717.512263598976</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X8" t="n">
-        <v>1346.11282670441</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="Y8" t="n">
-        <v>1346.11282670441</v>
+        <v>1229.941371236148</v>
       </c>
     </row>
     <row r="9">
@@ -4872,25 +4874,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598709</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>204.0596212327002</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600565</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>444.0275768541696</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W10" t="n">
-        <v>432.0491721307175</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="X10" t="n">
-        <v>204.0596212327002</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="Y10" t="n">
-        <v>204.0596212327002</v>
+        <v>184.2708856551153</v>
       </c>
     </row>
     <row r="11">
@@ -5024,19 +5026,19 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
@@ -5066,10 +5068,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5124,22 +5126,22 @@
         <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>1163.495507227045</v>
+        <v>880.8106280646857</v>
       </c>
       <c r="M12" t="n">
-        <v>1470.815640507006</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N12" t="n">
-        <v>1800.678268171039</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O12" t="n">
-        <v>2080.218333389736</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>670.8029673508208</v>
+        <v>354.6908600059907</v>
       </c>
       <c r="C13" t="n">
-        <v>501.866784422914</v>
+        <v>354.6908600059907</v>
       </c>
       <c r="D13" t="n">
-        <v>501.866784422914</v>
+        <v>354.6908600059907</v>
       </c>
       <c r="E13" t="n">
-        <v>501.866784422914</v>
+        <v>354.6908600059907</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>354.6908600059907</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>186.5155383258113</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>186.5155383258113</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5233,16 +5235,16 @@
         <v>898.7925182488382</v>
       </c>
       <c r="V13" t="n">
-        <v>898.7925182488382</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="W13" t="n">
-        <v>898.7925182488382</v>
+        <v>354.6908600059907</v>
       </c>
       <c r="X13" t="n">
-        <v>670.8029673508208</v>
+        <v>354.6908600059907</v>
       </c>
       <c r="Y13" t="n">
-        <v>670.8029673508208</v>
+        <v>354.6908600059907</v>
       </c>
     </row>
     <row r="14">
@@ -5276,7 +5278,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514082</v>
@@ -5312,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5355,28 +5357,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C16" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D16" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E16" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
         <v>208.7516828383384</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>874.9271131227918</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>620.2426249169049</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W16" t="n">
-        <v>579.9622704339251</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X16" t="n">
-        <v>579.9622704339251</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y16" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5513,10 +5515,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,7 +5533,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5540,25 +5542,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5592,28 +5594,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>841.863114014129</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1646.27469227828</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1925.814757496977</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2446.115379232724</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4075.516172206884</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="C19" t="n">
-        <v>3906.579989278977</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="D19" t="n">
-        <v>3756.463349866642</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E19" t="n">
-        <v>3756.463349866642</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F19" t="n">
-        <v>3609.573402368731</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G19" t="n">
-        <v>3609.573402368731</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>4708.939603145634</v>
+        <v>1330.821298391235</v>
       </c>
       <c r="T19" t="n">
-        <v>4485.154187935141</v>
+        <v>1330.821298391235</v>
       </c>
       <c r="U19" t="n">
-        <v>4485.154187935141</v>
+        <v>1330.821298391235</v>
       </c>
       <c r="V19" t="n">
-        <v>4485.154187935141</v>
+        <v>1076.136810185348</v>
       </c>
       <c r="W19" t="n">
-        <v>4485.154187935141</v>
+        <v>786.7196401483878</v>
       </c>
       <c r="X19" t="n">
-        <v>4257.164637037124</v>
+        <v>786.7196401483878</v>
       </c>
       <c r="Y19" t="n">
-        <v>4257.164637037124</v>
+        <v>565.9270610048577</v>
       </c>
     </row>
     <row r="20">
@@ -5726,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
         <v>3183.709822619127</v>
@@ -5768,34 +5770,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5817,34 +5819,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>880.810628064685</v>
       </c>
       <c r="M21" t="n">
-        <v>841.8631140141288</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N21" t="n">
-        <v>1646.274692278279</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O21" t="n">
-        <v>2112.811595180915</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P21" t="n">
         <v>2317.834075963124</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3683.329483832694</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C22" t="n">
-        <v>3683.329483832694</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D22" t="n">
-        <v>3683.329483832694</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E22" t="n">
-        <v>3683.329483832694</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>3683.329483832694</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>3515.154162152515</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3515.154162152515</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>4637.069157803799</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U22" t="n">
-        <v>4637.069157803799</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="V22" t="n">
-        <v>4382.384669597912</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="W22" t="n">
-        <v>4092.967499560951</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="X22" t="n">
-        <v>3864.977948662934</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y22" t="n">
-        <v>3864.977948662934</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5981,25 +5983,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6008,10 +6010,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6020,19 +6022,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2375.989236263799</v>
+        <v>233.7852434110083</v>
       </c>
       <c r="K24" t="n">
-        <v>2525.058920465859</v>
+        <v>644.675512255521</v>
       </c>
       <c r="L24" t="n">
-        <v>2771.824048372323</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M24" t="n">
-        <v>3094.82385020805</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N24" t="n">
-        <v>3899.235428472201</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>4568.69918977486</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>4773.72167055707</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3867.970784729899</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C25" t="n">
-        <v>3867.970784729899</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D25" t="n">
-        <v>3717.854145317563</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>3717.854145317563</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>3717.854145317563</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3717.854145317563</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014293</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>4860.854573014293</v>
+        <v>1080.564027901911</v>
       </c>
       <c r="U25" t="n">
-        <v>4860.854573014293</v>
+        <v>791.4353891154691</v>
       </c>
       <c r="V25" t="n">
-        <v>4606.170084808407</v>
+        <v>536.7509009095822</v>
       </c>
       <c r="W25" t="n">
-        <v>4316.752914771446</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="X25" t="n">
-        <v>4088.763363873429</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y25" t="n">
-        <v>3867.970784729899</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,16 +6211,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6227,7 +6229,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6242,7 +6244,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6260,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6306,22 +6308,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>901.674922584592</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.043068977053</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3833.526634149342</v>
+        <v>499.7332479750896</v>
       </c>
       <c r="C28" t="n">
-        <v>3664.590451221436</v>
+        <v>499.7332479750896</v>
       </c>
       <c r="D28" t="n">
-        <v>3664.590451221436</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E28" t="n">
-        <v>3664.590451221436</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F28" t="n">
-        <v>3664.590451221436</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G28" t="n">
-        <v>3496.415129541256</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H28" t="n">
-        <v>3496.415129541256</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>4860.854573014292</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U28" t="n">
-        <v>4571.72593422785</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V28" t="n">
-        <v>4571.72593422785</v>
+        <v>909.3712637033467</v>
       </c>
       <c r="W28" t="n">
-        <v>4282.30876419089</v>
+        <v>909.3712637033467</v>
       </c>
       <c r="X28" t="n">
-        <v>4054.319213292873</v>
+        <v>681.3817128053294</v>
       </c>
       <c r="Y28" t="n">
-        <v>3833.526634149342</v>
+        <v>681.3817128053294</v>
       </c>
     </row>
     <row r="29">
@@ -6440,70 +6442,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,31 +6539,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1024.771599890052</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>675.2581065529677</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C31" t="n">
-        <v>675.2581065529677</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D31" t="n">
-        <v>675.2581065529677</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E31" t="n">
-        <v>527.3450129705745</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705745</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H31" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6643,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1332.383638732624</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1332.383638732624</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U31" t="n">
-        <v>1332.383638732624</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V31" t="n">
-        <v>1077.699150526737</v>
+        <v>429.5442619818684</v>
       </c>
       <c r="W31" t="n">
-        <v>1077.699150526737</v>
+        <v>429.5442619818684</v>
       </c>
       <c r="X31" t="n">
-        <v>1077.699150526737</v>
+        <v>429.5442619818684</v>
       </c>
       <c r="Y31" t="n">
-        <v>856.9065713832074</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="32">
@@ -6677,52 +6679,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,31 +6776,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M33" t="n">
-        <v>1302.911127126629</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2103.010087623274</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>826.1356072130309</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="C34" t="n">
-        <v>657.199424285124</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D34" t="n">
-        <v>507.0827848727882</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E34" t="n">
-        <v>359.1696912903951</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F34" t="n">
-        <v>359.1696912903951</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6883,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>805.539183663959</v>
       </c>
       <c r="V34" t="n">
-        <v>1498.916270557902</v>
+        <v>805.539183663959</v>
       </c>
       <c r="W34" t="n">
-        <v>1209.499100520942</v>
+        <v>805.539183663959</v>
       </c>
       <c r="X34" t="n">
-        <v>1209.499100520942</v>
+        <v>805.539183663959</v>
       </c>
       <c r="Y34" t="n">
-        <v>1007.784072043271</v>
+        <v>584.7466045204288</v>
       </c>
     </row>
     <row r="35">
@@ -6917,55 +6919,55 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7011,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>638.3691419079765</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3925.661817631306</v>
+        <v>991.0842369787848</v>
       </c>
       <c r="C37" t="n">
-        <v>3925.661817631306</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="D37" t="n">
-        <v>3925.661817631306</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E37" t="n">
-        <v>3777.748724048913</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F37" t="n">
-        <v>3777.748724048913</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G37" t="n">
-        <v>3609.573402368733</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916677</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014293</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014293</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T37" t="n">
-        <v>4860.854573014293</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U37" t="n">
-        <v>4697.75302677217</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V37" t="n">
-        <v>4443.068538566284</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W37" t="n">
-        <v>4153.651368529323</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="X37" t="n">
-        <v>3925.661817631306</v>
+        <v>991.0842369787848</v>
       </c>
       <c r="Y37" t="n">
-        <v>3925.661817631306</v>
+        <v>991.0842369787848</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,7 +7174,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7205,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7251,19 +7253,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>261.8048459311029</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>410.8745301331628</v>
       </c>
       <c r="L39" t="n">
-        <v>901.674922584592</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M39" t="n">
-        <v>1208.995055864553</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N39" t="n">
-        <v>2013.406634128704</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O39" t="n">
         <v>2331.418122136705</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>732.358329063101</v>
+        <v>3778.509585296638</v>
       </c>
       <c r="C40" t="n">
-        <v>563.4221461351941</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="D40" t="n">
-        <v>413.3055067228584</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="E40" t="n">
-        <v>265.3924131404652</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T40" t="n">
-        <v>1387.841167119728</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U40" t="n">
-        <v>1387.841167119728</v>
+        <v>4347.940519017357</v>
       </c>
       <c r="V40" t="n">
-        <v>1133.156678913841</v>
+        <v>4249.575220163839</v>
       </c>
       <c r="W40" t="n">
-        <v>953.1509082066311</v>
+        <v>3960.158050126878</v>
       </c>
       <c r="X40" t="n">
-        <v>953.1509082066311</v>
+        <v>3960.158050126878</v>
       </c>
       <c r="Y40" t="n">
-        <v>732.358329063101</v>
+        <v>3960.158050126878</v>
       </c>
     </row>
     <row r="41">
@@ -7409,7 +7411,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>2525.058920465858</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>3138.955990222747</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M42" t="n">
-        <v>3446.276123502708</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N42" t="n">
-        <v>3776.138751166741</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O42" t="n">
-        <v>4055.678816385438</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P42" t="n">
-        <v>4565.745155698578</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>613.8011874802282</v>
+        <v>739.1390269937327</v>
       </c>
       <c r="C43" t="n">
-        <v>613.8011874802282</v>
+        <v>739.1390269937327</v>
       </c>
       <c r="D43" t="n">
-        <v>507.0827848727882</v>
+        <v>739.1390269937327</v>
       </c>
       <c r="E43" t="n">
-        <v>359.1696912903951</v>
+        <v>591.2259334113396</v>
       </c>
       <c r="F43" t="n">
-        <v>359.1696912903951</v>
+        <v>444.3359859134292</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>276.1606642332498</v>
       </c>
       <c r="H43" t="n">
         <v>208.7516828383384</v>
@@ -7591,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V43" t="n">
-        <v>1244.231782352015</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W43" t="n">
-        <v>1244.231782352015</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="X43" t="n">
-        <v>1016.242231453998</v>
+        <v>959.9316061372629</v>
       </c>
       <c r="Y43" t="n">
-        <v>795.449652310468</v>
+        <v>739.1390269937327</v>
       </c>
     </row>
     <row r="44">
@@ -7625,10 +7627,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7640,31 +7642,31 @@
         <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7673,10 +7675,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7728,22 +7730,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1236.836466556558</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>2041.248044820708</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
         <v>2612.943493278838</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>799.6537879979912</v>
+        <v>773.166147484815</v>
       </c>
       <c r="C46" t="n">
-        <v>630.7176050700843</v>
+        <v>604.2299645569082</v>
       </c>
       <c r="D46" t="n">
-        <v>480.6009656577486</v>
+        <v>604.2299645569082</v>
       </c>
       <c r="E46" t="n">
-        <v>332.6878720753555</v>
+        <v>604.2299645569082</v>
       </c>
       <c r="F46" t="n">
-        <v>332.6878720753555</v>
+        <v>457.3400170589978</v>
       </c>
       <c r="G46" t="n">
-        <v>332.6878720753555</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H46" t="n">
-        <v>182.2698636232988</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7834,22 +7836,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>1020.446367141521</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W46" t="n">
-        <v>1020.446367141521</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X46" t="n">
-        <v>1020.446367141521</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="Y46" t="n">
-        <v>799.6537879979912</v>
+        <v>954.8146123150548</v>
       </c>
     </row>
   </sheetData>
@@ -8067,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142015</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747115</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8772,7 +8774,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>85.30006332127834</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>253.7371603504743</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8939,7 +8941,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627457</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9003,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9249,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>80.50021372615217</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,22 +9482,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>85.30006332127743</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>188.8856946302409</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9644,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9656,7 +9658,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>96.03744927814623</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>15.83804904622809</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,25 +9956,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>52.4973336130526</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10130,7 +10132,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>230.7151863772036</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>277.6717966208069</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711659</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10428,28 +10430,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>9.900512684485932</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,16 +10664,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>104.874910276575</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>124.3400780863227</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10911,10 +10913,10 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>38.86002301949912</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10923,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11078,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11151,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>308.1251096272025</v>
+        <v>124.3400780863231</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>272.8719470256807</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23416,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,16 +23427,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>4.150925821737559</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>22.01378306740177</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23668,7 +23670,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23713,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>246.645447398441</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>213.4769220161492</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,10 +23901,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>157.4893422174249</v>
+        <v>31.50678753860288</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24145,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>54.98046491079121</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,16 +24186,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>43.86969556065128</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24379,10 +24381,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>3.221309944930425</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>5.299650812560401</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>6.977686179397779</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>73.53210719593723</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24844,16 +24846,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>33.05350447657801</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>9.129430677917213</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>19.26240741556592</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>18.8867751592004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>124.7668216188758</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>54.46785560789269</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25546,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>154.7559974588455</v>
       </c>
       <c r="W40" t="n">
-        <v>108.3172853364535</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>42.9642544368467</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>82.1789367865738</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -25843,7 +25845,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>69.30494595246091</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>26.21700102288921</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26076,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -26083,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>764342.0273979418</v>
+        <v>764342.0273979419</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>764342.0273979419</v>
+        <v>764342.0273979418</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>764342.0273979418</v>
+        <v>764342.0273979419</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>764342.0273979419</v>
+        <v>764342.0273979418</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>764342.0273979418</v>
+        <v>764342.0273979419</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>764342.0273979419</v>
+        <v>764342.0273979418</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>656833.4158914266</v>
+      </c>
+      <c r="C2" t="n">
+        <v>656833.4158914266</v>
+      </c>
+      <c r="D2" t="n">
         <v>656833.4158914267</v>
       </c>
-      <c r="C2" t="n">
-        <v>656833.4158914264</v>
-      </c>
-      <c r="D2" t="n">
-        <v>656833.4158914261</v>
-      </c>
       <c r="E2" t="n">
+        <v>625646.4955803342</v>
+      </c>
+      <c r="F2" t="n">
+        <v>625646.4955803343</v>
+      </c>
+      <c r="G2" t="n">
         <v>625646.4955803341</v>
       </c>
-      <c r="F2" t="n">
-        <v>625646.4955803342</v>
-      </c>
-      <c r="G2" t="n">
-        <v>625646.4955803342</v>
-      </c>
       <c r="H2" t="n">
-        <v>625646.495580334</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="I2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803338</v>
       </c>
       <c r="J2" t="n">
         <v>625646.4955803341</v>
       </c>
       <c r="K2" t="n">
+        <v>625646.495580334</v>
+      </c>
+      <c r="L2" t="n">
         <v>625646.4955803341</v>
       </c>
-      <c r="L2" t="n">
-        <v>625646.4955803344</v>
-      </c>
       <c r="M2" t="n">
-        <v>625646.4955803344</v>
+        <v>625646.4955803343</v>
       </c>
       <c r="N2" t="n">
+        <v>625646.4955803342</v>
+      </c>
+      <c r="O2" t="n">
         <v>625646.495580334</v>
       </c>
-      <c r="O2" t="n">
-        <v>625646.4955803341</v>
-      </c>
       <c r="P2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803343</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26430,25 +26432,25 @@
         <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687075</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="J4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.60758687073</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687076</v>
       </c>
       <c r="N4" t="n">
         <v>22174.60758687071</v>
@@ -26457,7 +26459,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687075</v>
+        <v>22174.60758687071</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26472,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26482,10 +26484,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26494,7 +26496,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
@@ -26503,13 +26505,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-181626.4091730515</v>
+        <v>-181626.4091730517</v>
       </c>
       <c r="C6" t="n">
-        <v>408341.4700414925</v>
+        <v>408341.4700414927</v>
       </c>
       <c r="D6" t="n">
-        <v>408341.4700414923</v>
+        <v>408341.4700414928</v>
       </c>
       <c r="E6" t="n">
-        <v>-13675.47443214909</v>
+        <v>-13675.47443214926</v>
       </c>
       <c r="F6" t="n">
-        <v>511484.5620447469</v>
+        <v>511484.5620447471</v>
       </c>
       <c r="G6" t="n">
-        <v>511484.5620447469</v>
+        <v>511484.5620447467</v>
       </c>
       <c r="H6" t="n">
         <v>511484.5620447467</v>
       </c>
       <c r="I6" t="n">
-        <v>511484.5620447469</v>
+        <v>511484.5620447465</v>
       </c>
       <c r="J6" t="n">
-        <v>335061.3428521539</v>
+        <v>335061.342852154</v>
       </c>
       <c r="K6" t="n">
         <v>511484.5620447467</v>
       </c>
       <c r="L6" t="n">
-        <v>511484.5620447472</v>
+        <v>511484.5620447468</v>
       </c>
       <c r="M6" t="n">
-        <v>376683.54681091</v>
+        <v>376683.5468109098</v>
       </c>
       <c r="N6" t="n">
+        <v>511484.5620447469</v>
+      </c>
+      <c r="O6" t="n">
         <v>511484.5620447467</v>
       </c>
-      <c r="O6" t="n">
-        <v>511484.5620447468</v>
-      </c>
       <c r="P6" t="n">
-        <v>511484.5620447468</v>
+        <v>511484.5620447471</v>
       </c>
     </row>
   </sheetData>
@@ -26716,10 +26718,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26738,10 +26740,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26750,13 +26752,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26765,19 +26767,19 @@
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26938,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>77.85099627162521</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>39.53802575917734</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,22 +27426,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27537,28 +27539,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>87.75947689674642</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>146.1393241335322</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27591,7 +27593,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>164.092716713152</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>104.3714538737394</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27792,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853697</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,25 +27818,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491427</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>56.69292621882434</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>142.1261138757841</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,7 +27864,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>80.28263268458711</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27910,16 +27912,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>2.045658152848546</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,16 +28025,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>38.2851774626476</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,16 +28067,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>274.6643776603734</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28630,7 +28632,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
     </row>
     <row r="18">
@@ -29983,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
     </row>
     <row r="36">
@@ -31039,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31455,28 +31457,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,10 +35096,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
         <v>146.3614835535656</v>
@@ -35106,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624592</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35492,7 +35494,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>334.5577682773026</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504662</v>
@@ -35504,13 +35506,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>460.8305752819989</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35659,7 +35661,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P14" t="n">
         <v>570.6060255109123</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35884,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
@@ -35969,22 +35971,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>168.5132465112263</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>334.5577682773018</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>471.2493968713491</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>137.9476282330529</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>326.2624260966943</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36674,25 +36676,25 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>385.6919070110654</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36850,7 +36852,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
         <v>59.82538970349808</v>
@@ -36908,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>479.9728913332278</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
@@ -36923,16 +36925,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>560.035498861915</v>
       </c>
       <c r="P30" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303341</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>216.9939276160106</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>354.1326152325992</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>166.2502570412294</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879392</v>
@@ -37628,19 +37630,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>321.2237252606072</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37798,10 +37800,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
         <v>150.5754385879392</v>
@@ -37865,19 +37867,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>515.2185245587272</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38098,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>583.2963240761469</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2964853.098537516</v>
+        <v>2957836.083645805</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8960035.730364893</v>
+        <v>8960035.730364891</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>276.8320453490578</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>331.5933001006561</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>60.85599612146594</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>192.5627265154902</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>362.4006936231285</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>219.5513188906178</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>59.72683757586842</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>110.0115294480439</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>71.64868356027414</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>325.2557485598869</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1299,13 +1299,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>75.55676716022053</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497997</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>88.40546239687022</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>164.3650309254209</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.107731335945625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1861,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>166.4140224450004</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>208.2679477631767</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
-        <v>216.2479102458288</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896916</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>60.03129353024072</v>
       </c>
       <c r="D28" t="n">
-        <v>141.6377868388146</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>243.0082126459108</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>185.9860419359966</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>5.1077313359454</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>266.9749449830114</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113176</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274067</v>
+        <v>81.77913505274088</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,13 +3319,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3426,25 +3426,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>171.2417997811445</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3720,13 +3720,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>97.38164586498256</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3906,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>66.73489158096233</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>149.0799667719507</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>97.18862251091667</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>93.87916681139886</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1701.775251950352</v>
+        <v>799.8716139843721</v>
       </c>
       <c r="C2" t="n">
-        <v>1701.775251950352</v>
+        <v>799.8716139843721</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>799.8716139843721</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>799.8716139843721</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>388.8857091947645</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2478.514423990285</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>2478.514423990285</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X2" t="n">
-        <v>2478.514423990285</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="Y2" t="n">
-        <v>2088.375092014473</v>
+        <v>799.8716139843721</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>477.919485916526</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="C4" t="n">
-        <v>308.9833029886191</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D4" t="n">
-        <v>247.5125998356232</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>533.621179645333</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>533.621179645333</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>533.621179645333</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>533.621179645333</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600561</v>
+        <v>533.621179645333</v>
       </c>
       <c r="Y4" t="n">
-        <v>477.919485916526</v>
+        <v>533.621179645333</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1859.412473230863</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C5" t="n">
-        <v>1490.449956290451</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D5" t="n">
-        <v>1490.449956290451</v>
+        <v>819.7159451700466</v>
       </c>
       <c r="E5" t="n">
-        <v>1104.661703692207</v>
+        <v>433.9276925718023</v>
       </c>
       <c r="F5" t="n">
-        <v>693.6757989025996</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G5" t="n">
-        <v>275.7119908007865</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2212.181128500977</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1859.412473230863</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>1859.412473230863</v>
+        <v>2323.683332757142</v>
       </c>
       <c r="Y5" t="n">
-        <v>1859.412473230863</v>
+        <v>1933.54400078133</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4761,16 +4761,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>617.0062271882081</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>327.5890571512475</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>843.3415311720264</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>474.3790142316147</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>474.3790142316147</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>474.3790142316147</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>467.4335134824112</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>453.5101094210021</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>126.315389457005</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W8" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X8" t="n">
-        <v>1620.08070321196</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1229.941371236148</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M9" t="n">
         <v>1237.953133915166</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>184.2708856551153</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="C10" t="n">
-        <v>184.2708856551153</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="D10" t="n">
-        <v>184.2708856551153</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E10" t="n">
-        <v>184.2708856551153</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="F10" t="n">
-        <v>184.2708856551153</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="V10" t="n">
-        <v>184.2708856551153</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="W10" t="n">
-        <v>184.2708856551153</v>
+        <v>622.3920982315509</v>
       </c>
       <c r="X10" t="n">
-        <v>184.2708856551153</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="Y10" t="n">
-        <v>184.2708856551153</v>
+        <v>394.4025473335336</v>
       </c>
     </row>
     <row r="11">
@@ -5026,25 +5026,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5068,10 +5068,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5123,25 +5123,25 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>880.8106280646857</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1188.130761344647</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1517.99338900868</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1797.533454227377</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>354.6908600059907</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C13" t="n">
-        <v>354.6908600059907</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D13" t="n">
-        <v>354.6908600059907</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>354.6908600059907</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>354.6908600059907</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>186.5155383258113</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>186.5155383258113</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>898.7925182488382</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>644.1080300429513</v>
+        <v>1332.890986794851</v>
       </c>
       <c r="W13" t="n">
-        <v>354.6908600059907</v>
+        <v>1043.47381675789</v>
       </c>
       <c r="X13" t="n">
-        <v>354.6908600059907</v>
+        <v>815.4842658598729</v>
       </c>
       <c r="Y13" t="n">
-        <v>354.6908600059907</v>
+        <v>594.6916867163428</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5296,10 +5296,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5515,25 +5515,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5542,25 +5542,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>565.9270610048577</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>565.9270610048577</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1330.821298391235</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1330.821298391235</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1330.821298391235</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>1076.136810185348</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>786.7196401483878</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>786.7196401483878</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>565.9270610048577</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5731,40 +5731,40 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5776,22 +5776,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5819,13 +5819,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
@@ -5834,25 +5834,25 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701562</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>880.810628064685</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1188.130761344647</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N21" t="n">
-        <v>1517.99338900868</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1797.533454227377</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>434.3285960683721</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347409</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1275.130855347409</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>1064.759190940159</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>1064.759190940159</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>836.769640042142</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>615.9770608986119</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,43 +5974,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>233.7852434110083</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>644.675512255521</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>891.4406401619851</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
         <v>97.21709146028584</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1080.564027901911</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>791.4353891154691</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>536.7509009095822</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>247.3337308726216</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
@@ -6214,58 +6214,58 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6302,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L27" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M27" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>499.7332479750896</v>
+        <v>773.4546787353345</v>
       </c>
       <c r="C28" t="n">
-        <v>499.7332479750896</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="D28" t="n">
-        <v>356.6647764207315</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E28" t="n">
-        <v>208.7516828383384</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383384</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U28" t="n">
-        <v>1164.055751909234</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>909.3712637033467</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W28" t="n">
-        <v>909.3712637033467</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="X28" t="n">
-        <v>681.3817128053294</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="Y28" t="n">
-        <v>681.3817128053294</v>
+        <v>955.1031435655742</v>
       </c>
     </row>
     <row r="29">
@@ -6442,28 +6442,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514085</v>
@@ -6478,13 +6478,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6530,40 +6530,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>208.7516828383384</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="C31" t="n">
-        <v>208.7516828383384</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="D31" t="n">
-        <v>208.7516828383384</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E31" t="n">
-        <v>208.7516828383384</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F31" t="n">
-        <v>208.7516828383384</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6624,13 +6624,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T31" t="n">
-        <v>964.1357418247858</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U31" t="n">
-        <v>675.007103038344</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="V31" t="n">
-        <v>429.5442619818684</v>
+        <v>933.2366688293938</v>
       </c>
       <c r="W31" t="n">
-        <v>429.5442619818684</v>
+        <v>745.3719800051548</v>
       </c>
       <c r="X31" t="n">
-        <v>429.5442619818684</v>
+        <v>745.3719800051548</v>
       </c>
       <c r="Y31" t="n">
-        <v>208.7516828383384</v>
+        <v>745.3719800051548</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,34 +6718,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2103.010087623274</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>584.7466045204288</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C34" t="n">
-        <v>415.8104215925219</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D34" t="n">
-        <v>415.8104215925219</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E34" t="n">
-        <v>415.8104215925219</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F34" t="n">
-        <v>415.8104215925219</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1493.756945976139</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1269.971530765645</v>
       </c>
       <c r="U34" t="n">
-        <v>805.539183663959</v>
+        <v>980.8428919792033</v>
       </c>
       <c r="V34" t="n">
-        <v>805.539183663959</v>
+        <v>726.1584037733164</v>
       </c>
       <c r="W34" t="n">
-        <v>805.539183663959</v>
+        <v>436.7412337363558</v>
       </c>
       <c r="X34" t="n">
-        <v>805.539183663959</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y34" t="n">
-        <v>584.7466045204288</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="35">
@@ -6919,22 +6919,22 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822464</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6946,28 +6946,28 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>991.0842369787848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T37" t="n">
-        <v>1164.055751909234</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>1164.055751909234</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V37" t="n">
-        <v>1164.055751909234</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W37" t="n">
-        <v>1164.055751909234</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>991.0842369787848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>991.0842369787848</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7165,7 +7165,7 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7174,10 +7174,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7253,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>261.8048459311029</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>410.8745301331628</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1024.771599890051</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3778.509585296638</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>4637.069157803799</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>4347.940519017357</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>4249.575220163839</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>3960.158050126878</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X40" t="n">
-        <v>3960.158050126878</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>3960.158050126878</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7402,40 +7402,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2208.321444831246</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>739.1390269937327</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>739.1390269937327</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>739.1390269937327</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>591.2259334113396</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>444.3359859134292</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>276.1606642332498</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>1187.92115703528</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>1187.92115703528</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W43" t="n">
-        <v>1187.92115703528</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X43" t="n">
-        <v>959.9316061372629</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
-        <v>739.1390269937327</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7648,13 +7648,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>773.166147484815</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>604.2299645569082</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>604.2299645569082</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>604.2299645569082</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>457.3400170589978</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>954.8146123150548</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>954.8146123150548</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>954.8146123150548</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747122</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142015</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>435.9238900028829</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8771,28 +8771,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>85.30006332127834</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627457</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,28 +9482,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>85.30006332127743</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>96.03744927814623</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>96.03744927814699</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10442,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>9.900512684485932</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928333</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>124.3400780863227</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>124.3400780863231</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23427,16 +23427,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>22.01378306740177</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>87.77261239840709</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23673,7 +23673,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>213.4769220161492</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23895,7 +23895,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23940,13 +23940,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>31.50678753860288</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>43.86969556065128</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24369,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24414,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
-        <v>5.299650812560401</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>107.2155275683871</v>
       </c>
       <c r="D28" t="n">
-        <v>6.977686179397779</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,22 +24891,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>9.129430677917213</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>100.5369564005944</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>192.8130786476578</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>19.26240741556592</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,25 +25314,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>54.46785560789269</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25566,7 +25566,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>154.7559974588455</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25794,19 +25794,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>82.1789367865738</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>69.30494595246091</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>192.3581855871785</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>764342.0273979419</v>
+        <v>764342.0273979418</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>764342.0273979419</v>
+        <v>764342.0273979418</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>764342.0273979419</v>
+        <v>764342.0273979418</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>764342.0273979419</v>
+        <v>764342.0273979418</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>764342.0273979419</v>
+        <v>764342.0273979418</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>764342.0273979419</v>
+        <v>764342.0273979418</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="C2" t="n">
         <v>656833.4158914266</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="E2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.495580334</v>
       </c>
       <c r="F2" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="G2" t="n">
-        <v>625646.4955803341</v>
+        <v>625646.495580334</v>
       </c>
       <c r="H2" t="n">
         <v>625646.4955803341</v>
       </c>
       <c r="I2" t="n">
+        <v>625646.4955803341</v>
+      </c>
+      <c r="J2" t="n">
         <v>625646.4955803338</v>
       </c>
-      <c r="J2" t="n">
-        <v>625646.4955803341</v>
-      </c>
       <c r="K2" t="n">
-        <v>625646.495580334</v>
+        <v>625646.4955803339</v>
       </c>
       <c r="L2" t="n">
         <v>625646.4955803341</v>
       </c>
       <c r="M2" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="N2" t="n">
+        <v>625646.495580334</v>
+      </c>
+      <c r="O2" t="n">
         <v>625646.4955803342</v>
       </c>
-      <c r="O2" t="n">
-        <v>625646.495580334</v>
-      </c>
       <c r="P2" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.4955803342</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.2191925933</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,37 +26426,37 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687077</v>
       </c>
       <c r="F4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687075</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
         <v>22174.6075868707</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="L4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687076</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="N4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="P4" t="n">
         <v>22174.60758687071</v>
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26484,19 +26484,19 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="K5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
@@ -26505,13 +26505,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-181626.4091730517</v>
+        <v>-181626.4091730514</v>
       </c>
       <c r="C6" t="n">
         <v>408341.4700414927</v>
       </c>
       <c r="D6" t="n">
-        <v>408341.4700414928</v>
+        <v>408341.4700414924</v>
       </c>
       <c r="E6" t="n">
-        <v>-13675.47443214926</v>
+        <v>-14650.06569187096</v>
       </c>
       <c r="F6" t="n">
-        <v>511484.5620447471</v>
+        <v>510509.9707850252</v>
       </c>
       <c r="G6" t="n">
-        <v>511484.5620447467</v>
+        <v>510509.970785025</v>
       </c>
       <c r="H6" t="n">
-        <v>511484.5620447467</v>
+        <v>510509.9707850252</v>
       </c>
       <c r="I6" t="n">
-        <v>511484.5620447465</v>
+        <v>510509.9707850252</v>
       </c>
       <c r="J6" t="n">
-        <v>335061.342852154</v>
+        <v>334086.7515924315</v>
       </c>
       <c r="K6" t="n">
-        <v>511484.5620447467</v>
+        <v>510509.9707850249</v>
       </c>
       <c r="L6" t="n">
-        <v>511484.5620447468</v>
+        <v>510509.9707850253</v>
       </c>
       <c r="M6" t="n">
-        <v>376683.5468109098</v>
+        <v>375708.9555511881</v>
       </c>
       <c r="N6" t="n">
-        <v>511484.5620447469</v>
+        <v>510509.970785025</v>
       </c>
       <c r="O6" t="n">
-        <v>511484.5620447467</v>
+        <v>510509.9707850253</v>
       </c>
       <c r="P6" t="n">
-        <v>511484.5620447471</v>
+        <v>510509.9707850253</v>
       </c>
     </row>
   </sheetData>
@@ -26718,10 +26718,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26743,7 +26743,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26752,19 +26752,19 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="H3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541004</v>
-      </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
@@ -26773,13 +26773,13 @@
         <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,13 +26977,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>77.85099627162521</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>82.19086992013894</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,13 +27438,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>87.75947689674642</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27590,7 +27590,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>32.47237894259405</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>44.47535211858298</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>104.3714538737394</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27833,13 +27833,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>142.1261138757841</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>80.28263268458711</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>44.47535211858218</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28019,22 +28019,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>38.2851774626476</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,16 +28067,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>210.9662311763705</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28146,7 +28146,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28632,7 +28632,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.682195192673604e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34792,7 +34792,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
         <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35491,28 +35491,28 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>334.5577682773026</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35661,7 +35661,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
         <v>570.6060255109123</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>334.5577682773018</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>137.9476282330529</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O30" t="n">
-        <v>560.035498861915</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37162,16 +37162,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>216.9939276160106</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>166.2502570412294</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37800,10 +37800,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>331.4334930178478</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2957836.083645805</v>
+        <v>2962775.346494837</v>
       </c>
     </row>
     <row r="7">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>331.5933001006561</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>70.89253115536384</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -825,7 +825,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>192.5627265154902</v>
+        <v>86.85904583823142</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>362.4006936231285</v>
+        <v>362.4006936231289</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1068,10 +1068,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>59.72683757586842</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>59.66385641544528</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>325.2557485598869</v>
+        <v>270.7773459850742</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>9.790440613649634</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>75.55676716022053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952497997</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>164.3650309254209</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>47.27820527287692</v>
       </c>
     </row>
     <row r="14">
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1861,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>60.03129353024072</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2775,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>185.9860419359966</v>
+        <v>256.1498215708847</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>81.90355835744664</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>5.1077313359454</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3283,10 +3283,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274088</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>57.64843562452403</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>149.0799667719507</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4191,7 +4191,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>93.87916681139886</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>799.8716139843721</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C2" t="n">
-        <v>799.8716139843721</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D2" t="n">
-        <v>799.8716139843721</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="E2" t="n">
-        <v>799.8716139843721</v>
+        <v>550.4609080000314</v>
       </c>
       <c r="F2" t="n">
-        <v>388.8857091947645</v>
+        <v>543.5154072508279</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>125.5515991490148</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>125.5515991490148</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4363,19 +4363,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1563.476704221264</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1190.010945960184</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>799.8716139843721</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>351.9727148150933</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C4" t="n">
-        <v>351.9727148150933</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4518,22 +4518,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>533.621179645333</v>
+        <v>640.3925742688267</v>
       </c>
       <c r="U4" t="n">
-        <v>533.621179645333</v>
+        <v>640.3925742688267</v>
       </c>
       <c r="V4" t="n">
-        <v>533.621179645333</v>
+        <v>385.7080860629399</v>
       </c>
       <c r="W4" t="n">
-        <v>533.621179645333</v>
+        <v>385.7080860629399</v>
       </c>
       <c r="X4" t="n">
-        <v>533.621179645333</v>
+        <v>385.7080860629399</v>
       </c>
       <c r="Y4" t="n">
-        <v>533.621179645333</v>
+        <v>385.7080860629399</v>
       </c>
     </row>
     <row r="5">
@@ -4549,37 +4549,37 @@
         <v>1177.981643776797</v>
       </c>
       <c r="D5" t="n">
-        <v>819.7159451700466</v>
+        <v>819.715945170047</v>
       </c>
       <c r="E5" t="n">
-        <v>433.9276925718023</v>
+        <v>433.9276925718028</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177354</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4609,10 +4609,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>2323.683332757142</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y5" t="n">
-        <v>1933.54400078133</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4704,28 +4704,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>559.1928012785273</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>409.0761618661916</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E7" t="n">
-        <v>261.1630682837985</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F7" t="n">
-        <v>114.2731207858881</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4792,58 +4792,58 @@
         <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X8" t="n">
         <v>2368.607930856721</v>
@@ -4874,28 +4874,28 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.806220357135</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>394.4025473335336</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C10" t="n">
-        <v>394.4025473335336</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D10" t="n">
-        <v>394.4025473335336</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511404</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600565</v>
+        <v>718.2396502532528</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600565</v>
+        <v>718.2396502532528</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600565</v>
+        <v>718.2396502532528</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600565</v>
+        <v>718.2396502532528</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600565</v>
+        <v>718.2396502532528</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600565</v>
+        <v>718.2396502532528</v>
       </c>
       <c r="W10" t="n">
-        <v>622.3920982315509</v>
+        <v>428.8224802162921</v>
       </c>
       <c r="X10" t="n">
-        <v>394.4025473335336</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y10" t="n">
-        <v>394.4025473335336</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5041,10 +5041,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5068,25 +5068,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5120,13 +5120,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
         <v>1247.466478653857</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>413.0432218861031</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V13" t="n">
-        <v>1332.890986794851</v>
+        <v>844.0280401273993</v>
       </c>
       <c r="W13" t="n">
-        <v>1043.47381675789</v>
+        <v>554.6108700904388</v>
       </c>
       <c r="X13" t="n">
-        <v>815.4842658598729</v>
+        <v>326.6213191924214</v>
       </c>
       <c r="Y13" t="n">
-        <v>594.6916867163428</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="14">
@@ -5278,16 +5278,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5299,7 +5299,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5363,16 +5363,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5463,7 +5463,7 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
         <v>1158.436939387592</v>
@@ -5497,16 +5497,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5515,10 +5515,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5597,25 +5597,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>634.0455001582217</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>880.8106280646857</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5700,19 +5700,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
         <v>97.21709146028584</v>
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,34 +5737,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5937,19 +5937,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
         <v>97.21709146028584</v>
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,25 +5974,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6001,7 +6001,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6074,22 +6074,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6241,37 +6241,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>773.4546787353345</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>712.8170085027681</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>955.1031435655742</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>955.1031435655742</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X28" t="n">
-        <v>955.1031435655742</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>955.1031435655742</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6463,13 +6463,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6484,16 +6484,16 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6530,40 +6530,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>563.7235151749151</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C31" t="n">
-        <v>563.7235151749151</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D31" t="n">
-        <v>563.7235151749151</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E31" t="n">
-        <v>415.8104215925219</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F31" t="n">
-        <v>415.8104215925219</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6624,13 +6624,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1187.921157035281</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1187.921157035281</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>933.2366688293938</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W31" t="n">
-        <v>745.3719800051548</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X31" t="n">
-        <v>745.3719800051548</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y31" t="n">
-        <v>745.3719800051548</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6718,34 +6718,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>208.7516828383384</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C34" t="n">
-        <v>208.7516828383384</v>
+        <v>441.900558318119</v>
       </c>
       <c r="D34" t="n">
-        <v>208.7516828383384</v>
+        <v>441.900558318119</v>
       </c>
       <c r="E34" t="n">
-        <v>208.7516828383384</v>
+        <v>441.900558318119</v>
       </c>
       <c r="F34" t="n">
-        <v>208.7516828383384</v>
+        <v>441.900558318119</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H34" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1493.756945976139</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1269.971530765645</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>980.8428919792033</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>726.1584037733164</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W34" t="n">
-        <v>436.7412337363558</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X34" t="n">
-        <v>208.7516828383384</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y34" t="n">
-        <v>208.7516828383384</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="35">
@@ -6928,46 +6928,46 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822464</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952638</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7162,37 +7162,37 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7271,10 +7271,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7359,19 +7359,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
         <v>97.21709146028584</v>
@@ -7405,7 +7405,7 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028587</v>
@@ -7420,19 +7420,19 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014293</v>
@@ -7508,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D43" t="n">
         <v>97.21709146028587</v>
@@ -7599,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>835.416391538794</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W43" t="n">
-        <v>545.9992215018333</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X43" t="n">
-        <v>318.0096706038159</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028587</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="44">
@@ -7839,13 +7839,13 @@
         <v>964.1357418247858</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X46" t="n">
         <v>97.21709146028584</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8309,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360591</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,10 +8543,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9238900028829</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9011,19 +9011,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>223.6742649934481</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776744</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776744</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928333</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599059</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23427,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23472,10 +23472,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>87.77261239840709</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>171.3064480792179</v>
       </c>
     </row>
     <row r="14">
@@ -23703,10 +23703,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>107.2155275683871</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24651,10 +24651,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>100.5369564005944</v>
+        <v>30.37317676570626</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>84.59001010593094</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>192.8130786476578</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>30.90698584635157</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>90.96703739368832</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25839,13 +25839,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>103.0576765518773</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>192.3581855871785</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26316,46 +26316,46 @@
         <v>656833.4158914268</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="E2" t="n">
-        <v>625646.495580334</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="F2" t="n">
         <v>625646.4955803341</v>
       </c>
       <c r="G2" t="n">
+        <v>625646.4955803341</v>
+      </c>
+      <c r="H2" t="n">
+        <v>625646.4955803343</v>
+      </c>
+      <c r="I2" t="n">
         <v>625646.495580334</v>
       </c>
-      <c r="H2" t="n">
-        <v>625646.4955803341</v>
-      </c>
-      <c r="I2" t="n">
-        <v>625646.4955803341</v>
-      </c>
       <c r="J2" t="n">
-        <v>625646.4955803338</v>
+        <v>625646.4955803344</v>
       </c>
       <c r="K2" t="n">
-        <v>625646.4955803339</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="L2" t="n">
-        <v>625646.4955803341</v>
+        <v>625646.4955803343</v>
       </c>
       <c r="M2" t="n">
         <v>625646.4955803342</v>
       </c>
       <c r="N2" t="n">
-        <v>625646.495580334</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="O2" t="n">
         <v>625646.4955803342</v>
       </c>
       <c r="P2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803343</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925933</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687077</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
         <v>22174.60758687071</v>
@@ -26435,7 +26435,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
@@ -26444,16 +26444,16 @@
         <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687075</v>
       </c>
       <c r="L4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
+        <v>22174.60758687071</v>
+      </c>
+      <c r="N4" t="n">
         <v>22174.60758687072</v>
-      </c>
-      <c r="N4" t="n">
-        <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
         <v>22174.60758687072</v>
@@ -26475,34 +26475,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="J5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
@@ -26524,46 +26524,46 @@
         <v>-181626.4091730514</v>
       </c>
       <c r="C6" t="n">
-        <v>408341.4700414927</v>
+        <v>408341.4700414926</v>
       </c>
       <c r="D6" t="n">
-        <v>408341.4700414924</v>
+        <v>408341.4700414928</v>
       </c>
       <c r="E6" t="n">
-        <v>-14650.06569187096</v>
+        <v>-13772.93355812167</v>
       </c>
       <c r="F6" t="n">
-        <v>510509.9707850252</v>
+        <v>511387.1029187746</v>
       </c>
       <c r="G6" t="n">
-        <v>510509.970785025</v>
+        <v>511387.1029187746</v>
       </c>
       <c r="H6" t="n">
-        <v>510509.9707850252</v>
+        <v>511387.1029187749</v>
       </c>
       <c r="I6" t="n">
-        <v>510509.9707850252</v>
+        <v>511387.1029187745</v>
       </c>
       <c r="J6" t="n">
-        <v>334086.7515924315</v>
+        <v>334963.883726182</v>
       </c>
       <c r="K6" t="n">
-        <v>510509.9707850249</v>
+        <v>511387.1029187746</v>
       </c>
       <c r="L6" t="n">
-        <v>510509.9707850253</v>
+        <v>511387.1029187749</v>
       </c>
       <c r="M6" t="n">
-        <v>375708.9555511881</v>
+        <v>376586.0876849375</v>
       </c>
       <c r="N6" t="n">
-        <v>510509.970785025</v>
+        <v>511387.1029187748</v>
       </c>
       <c r="O6" t="n">
-        <v>510509.9707850253</v>
+        <v>511387.1029187748</v>
       </c>
       <c r="P6" t="n">
-        <v>510509.9707850253</v>
+        <v>511387.1029187749</v>
       </c>
     </row>
   </sheetData>
@@ -26743,34 +26743,34 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="K3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="J3" t="n">
-        <v>830.3824054541005</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541005</v>
-      </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545555</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>82.19086992013894</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>81.03878508949741</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27545,7 +27545,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27590,13 +27590,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>32.47237894259405</v>
+        <v>138.1760596198529</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>44.47535211858298</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>107.5829646831825</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>96.50703242634987</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>44.47535211858218</v>
+        <v>98.95375469339484</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28019,7 +28019,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>19.33230934126468</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>210.9662311763705</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28146,7 +28146,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -29511,7 +29511,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,10 +32937,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,37 +32949,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33055,7 +33055,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35497,19 +35497,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,19 +35731,19 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>425.9753597058698</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>88.0130327850741</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,28 +35965,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>374.2497035813873</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,25 +36442,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768305</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091992</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091992</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,22 +37393,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37563,7 +37563,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R38" t="n">
         <v>59.82538970349808</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37876,13 +37876,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
